--- a/biology/Botanique/Assyrtiko/Assyrtiko.xlsx
+++ b/biology/Botanique/Assyrtiko/Assyrtiko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Assyrtiko ou Asyrtiko est un cépage grec blanc originaire de l'île de Santorin. L'Assyrtiko est largement planté dans le sol aride riche en cendres volcaniques de Santorin et d'autres îles de la mer Égée, comme Páros. On le trouve également dans d'autres régions dispersées de la Grèce comme la Chalcidique[1]. L'Assyrtiko est également cultivé dans la vallée de Clare, en Australie-Méridionale[2], et à l'abbaye de New Clairvaux en Californie du Nord depuis 2011. Les boutures originales d'Assyrtiko ont été importées aux États-Unis en 1948 par Harold Olmo, éleveur de raisins à l'Université de Californie à Davis, où elles ont été stockées jusqu'à ce que l'abbaye de New Clairvaux s'y intéresse au début des années 2000[3].
-A Santorin, il existe de nombreuses vieilles plantations de vignes (plus de 70 ans) d'Assyrtiko, dont beaucoup sont non greffées. Ces plantations ont montré une résistance au phylloxéra. En tant que seule vigne européenne connue pour être résistante à la brûlure du vin (en), il est envisagé que la source réelle de cette résistance puisse provenir de la cendre volcanique dans laquelle poussent les vignes, et non de la vigne elle-même[4].
+L'Assyrtiko ou Asyrtiko est un cépage grec blanc originaire de l'île de Santorin. L'Assyrtiko est largement planté dans le sol aride riche en cendres volcaniques de Santorin et d'autres îles de la mer Égée, comme Páros. On le trouve également dans d'autres régions dispersées de la Grèce comme la Chalcidique. L'Assyrtiko est également cultivé dans la vallée de Clare, en Australie-Méridionale, et à l'abbaye de New Clairvaux en Californie du Nord depuis 2011. Les boutures originales d'Assyrtiko ont été importées aux États-Unis en 1948 par Harold Olmo, éleveur de raisins à l'Université de Californie à Davis, où elles ont été stockées jusqu'à ce que l'abbaye de New Clairvaux s'y intéresse au début des années 2000.
+A Santorin, il existe de nombreuses vieilles plantations de vignes (plus de 70 ans) d'Assyrtiko, dont beaucoup sont non greffées. Ces plantations ont montré une résistance au phylloxéra. En tant que seule vigne européenne connue pour être résistante à la brûlure du vin (en), il est envisagé que la source réelle de cette résistance puisse provenir de la cendre volcanique dans laquelle poussent les vignes, et non de la vigne elle-même.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Type de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le profil minéral du cépage est de bonne facture pour l'assemblage et il a souvent été assemblé avec du Sauvignon blanc, du Sémillon et de la Malagousia[1]. Les grappes de raisin Assyrtiko sont grandes, avec une peau jaune-or transparente et une chair juteuse. Dans le sol volcanique de Santorin, il semble y avoir des caractéristiques uniques qui se développent dans le cépage, et donc dans le vin. L'une de ces caractéristiques est que l'Assyrtiko ne perd pas son acidité même s'il est très mûr. Dans toute la Grèce, le raisin est vinifié pour produire une variété de vins secs et doux, y compris des vins de dessert musqués et sucrés de type Vinsanto. À Retsina, il est souvent mélangé avec le cépage moins acide Savatiano[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le profil minéral du cépage est de bonne facture pour l'assemblage et il a souvent été assemblé avec du Sauvignon blanc, du Sémillon et de la Malagousia. Les grappes de raisin Assyrtiko sont grandes, avec une peau jaune-or transparente et une chair juteuse. Dans le sol volcanique de Santorin, il semble y avoir des caractéristiques uniques qui se développent dans le cépage, et donc dans le vin. L'une de ces caractéristiques est que l'Assyrtiko ne perd pas son acidité même s'il est très mûr. Dans toute la Grèce, le raisin est vinifié pour produire une variété de vins secs et doux, y compris des vins de dessert musqués et sucrés de type Vinsanto. À Retsina, il est souvent mélangé avec le cépage moins acide Savatiano.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Assyrtiko est également connu sous les appellations Arcytico, Assirtico, Assyrtico, Asurtico et Asyrtiko[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Assyrtiko est également connu sous les appellations Arcytico, Assirtico, Assyrtico, Asurtico et Asyrtiko.
 </t>
         </is>
       </c>
